--- a/app/temp/Table.xlsx
+++ b/app/temp/Table.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Новая карточка" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Сводная" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="Новая карточка 1" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Сводная" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="33">
   <si>
     <t>Стеклопластик</t>
   </si>
@@ -560,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -577,7 +578,7 @@
         <v>1.576</v>
       </c>
       <c r="E4" s="3">
-        <v>1.576</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -594,7 +595,7 @@
         <v>0.536</v>
       </c>
       <c r="E5" s="3">
-        <v>0.536</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,7 +612,7 @@
         <v>1.6</v>
       </c>
       <c r="E6" s="3">
-        <v>1.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,7 +629,7 @@
         <v>7.548</v>
       </c>
       <c r="E7" s="3">
-        <v>7.548</v>
+        <v>37.74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -645,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,7 +663,7 @@
         <v>0.617</v>
       </c>
       <c r="E9" s="3">
-        <v>0.617</v>
+        <v>3.085</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,7 +680,7 @@
         <v>0.9</v>
       </c>
       <c r="E10" s="3">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,7 +697,7 @@
         <v>0.024</v>
       </c>
       <c r="E11" s="3">
-        <v>0.024</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -713,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -756,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="3">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -773,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,7 +808,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -824,7 +825,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="3">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -858,7 +859,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -892,7 +893,7 @@
         <v>24</v>
       </c>
       <c r="E24" s="3">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -926,7 +927,7 @@
         <v>38</v>
       </c>
       <c r="E26" s="3">
-        <v>38</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -943,7 +944,7 @@
         <v>0.08</v>
       </c>
       <c r="E27" s="3">
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -1004,8 +1005,8 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
+      <c r="D3" s="3">
+        <v>4</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -1021,11 +1022,11 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
+      <c r="D4" s="3">
+        <v>1.016</v>
       </c>
       <c r="E4" s="3">
-        <v>1.576</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1038,8 +1039,8 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
+      <c r="D5" s="3">
+        <v>0.536</v>
       </c>
       <c r="E5" s="3">
         <v>0.536</v>
@@ -1055,11 +1056,11 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
+      <c r="D6" s="3">
+        <v>1.04</v>
       </c>
       <c r="E6" s="3">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,8 +1073,8 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
+      <c r="D7" s="3">
+        <v>7.548</v>
       </c>
       <c r="E7" s="3">
         <v>7.548</v>
@@ -1089,8 +1090,8 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
+      <c r="D8" s="3">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
         <v>4</v>
@@ -1106,8 +1107,8 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
+      <c r="D9" s="3">
+        <v>0.617</v>
       </c>
       <c r="E9" s="3">
         <v>0.617</v>
@@ -1123,8 +1124,8 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
+      <c r="D10" s="3">
+        <v>0.9</v>
       </c>
       <c r="E10" s="3">
         <v>0.9</v>
@@ -1140,8 +1141,8 @@
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
+      <c r="D11" s="3">
+        <v>0.024</v>
       </c>
       <c r="E11" s="3">
         <v>0.024</v>
@@ -1157,8 +1158,8 @@
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
+      <c r="D12" s="3">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
@@ -1200,8 +1201,8 @@
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
+      <c r="D16" s="3">
+        <v>8</v>
       </c>
       <c r="E16" s="3">
         <v>8</v>
@@ -1217,8 +1218,8 @@
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>32</v>
+      <c r="D17" s="3">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
@@ -1234,8 +1235,8 @@
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
+      <c r="D18" s="3">
+        <v>12</v>
       </c>
       <c r="E18" s="3">
         <v>12</v>
@@ -1251,8 +1252,8 @@
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
+      <c r="D19" s="3">
+        <v>20</v>
       </c>
       <c r="E19" s="3">
         <v>20</v>
@@ -1268,8 +1269,8 @@
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
+      <c r="D20" s="3">
+        <v>12</v>
       </c>
       <c r="E20" s="3">
         <v>12</v>
@@ -1285,8 +1286,8 @@
       <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>32</v>
+      <c r="D21" s="3">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
@@ -1302,8 +1303,8 @@
       <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>32</v>
+      <c r="D22" s="3">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>8</v>
@@ -1319,8 +1320,8 @@
       <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>32</v>
+      <c r="D23" s="3">
+        <v>12</v>
       </c>
       <c r="E23" s="3">
         <v>12</v>
@@ -1336,8 +1337,8 @@
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>32</v>
+      <c r="D24" s="3">
+        <v>24</v>
       </c>
       <c r="E24" s="3">
         <v>24</v>
@@ -1353,8 +1354,8 @@
       <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
+      <c r="D25" s="3">
+        <v>12</v>
       </c>
       <c r="E25" s="3">
         <v>12</v>
@@ -1370,8 +1371,8 @@
       <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>32</v>
+      <c r="D26" s="3">
+        <v>38</v>
       </c>
       <c r="E26" s="3">
         <v>38</v>
@@ -1387,11 +1388,459 @@
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>32</v>
+      <c r="D27" s="3">
+        <v>0.08</v>
       </c>
       <c r="E27" s="3">
         <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8.896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45.288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>

--- a/app/temp/Table.xlsx
+++ b/app/temp/Table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="37">
   <si>
     <t>Стеклопластик</t>
   </si>
@@ -27,10 +27,16 @@
     <t>Ед. измерения</t>
   </si>
   <si>
-    <t>Количество на один мосток</t>
-  </si>
-  <si>
-    <t>Общее количество</t>
+    <t>Количество на один мосток, шт</t>
+  </si>
+  <si>
+    <t>Масса на один мосток, кг</t>
+  </si>
+  <si>
+    <t>Общее количество, шт</t>
+  </si>
+  <si>
+    <t>Общая масса, кг</t>
   </si>
   <si>
     <t>Швеллер 150x50x6</t>
@@ -111,7 +117,13 @@
     <t>Уголок Металлический 140x90x8</t>
   </si>
   <si>
-    <t>-</t>
+    <t>23.442</t>
+  </si>
+  <si>
+    <t>115.480</t>
+  </si>
+  <si>
+    <t>234.420</t>
   </si>
 </sst>
 </file>
@@ -511,17 +523,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +542,10 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -546,187 +561,253 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.48</v>
+      </c>
+      <c r="F3" s="3">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3">
+        <v>114.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
         <v>1.576</v>
       </c>
       <c r="E4" s="3">
-        <v>7.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.972</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15.76</v>
+      </c>
+      <c r="G4" s="3">
+        <v>39.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>0.536</v>
       </c>
       <c r="E5" s="3">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.927</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.36</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3">
         <v>1.6</v>
       </c>
       <c r="E6" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28.8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3">
         <v>7.548</v>
       </c>
       <c r="E7" s="3">
-        <v>37.74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.322</v>
+      </c>
+      <c r="F7" s="3">
+        <v>75.48</v>
+      </c>
+      <c r="G7" s="3">
+        <v>153.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.36</v>
+      </c>
+      <c r="F8" s="3">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3">
         <v>0.617</v>
       </c>
       <c r="E9" s="3">
-        <v>3.085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.524</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6.17</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>0.9</v>
       </c>
       <c r="E10" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.495</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>0.024</v>
       </c>
       <c r="E11" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.242</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
       </c>
       <c r="E12" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -742,214 +823,292 @@
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3">
         <v>8</v>
       </c>
       <c r="E16" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.727</v>
+      </c>
+      <c r="F16" s="3">
+        <v>80</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3">
         <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.171</v>
+      </c>
+      <c r="F18" s="3">
+        <v>120</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3">
         <v>20</v>
       </c>
       <c r="E19" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.44</v>
+      </c>
+      <c r="F19" s="3">
+        <v>200</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3">
         <v>12</v>
       </c>
       <c r="E20" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+      <c r="F20" s="3">
+        <v>120</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.132</v>
+      </c>
+      <c r="F21" s="3">
+        <v>40</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3">
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.136</v>
+      </c>
+      <c r="F22" s="3">
+        <v>80</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3">
         <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.072</v>
+      </c>
+      <c r="F23" s="3">
+        <v>120</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3">
         <v>24</v>
       </c>
       <c r="E24" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.144</v>
+      </c>
+      <c r="F24" s="3">
+        <v>240</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25" s="3">
         <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.048</v>
+      </c>
+      <c r="F25" s="3">
+        <v>120</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3">
         <v>38</v>
       </c>
       <c r="E26" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.304</v>
+      </c>
+      <c r="F26" s="3">
+        <v>380</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3">
         <v>0.08</v>
       </c>
       <c r="E27" s="3">
-        <v>0.4</v>
+        <v>1.08</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -959,17 +1118,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,8 +1137,10 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -994,187 +1156,230 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.48</v>
+      </c>
+      <c r="F3" s="3">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3">
+        <v>114.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>1.016</v>
+        <v>1.576</v>
       </c>
       <c r="E4" s="3">
-        <v>1.016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.972</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15.76</v>
+      </c>
+      <c r="G4" s="3">
+        <v>39.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>0.536</v>
       </c>
       <c r="E5" s="3">
-        <v>0.536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.927</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.36</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="E6" s="3">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28.8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15.322</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
-        <v>7.548</v>
-      </c>
-      <c r="E7" s="3">
-        <v>7.548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
       <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.617</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.524</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6.17</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="D10" s="3">
+        <v>0.024</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.242</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.617</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.617</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.024</v>
-      </c>
       <c r="E11" s="3">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1190,214 +1395,292 @@
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3">
         <v>8</v>
       </c>
       <c r="E16" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.727</v>
+      </c>
+      <c r="F16" s="3">
+        <v>80</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3">
         <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.171</v>
+      </c>
+      <c r="F18" s="3">
+        <v>120</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3">
         <v>20</v>
       </c>
       <c r="E19" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.44</v>
+      </c>
+      <c r="F19" s="3">
+        <v>200</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3">
         <v>12</v>
       </c>
       <c r="E20" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+      <c r="F20" s="3">
+        <v>120</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.132</v>
+      </c>
+      <c r="F21" s="3">
+        <v>40</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3">
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.136</v>
+      </c>
+      <c r="F22" s="3">
+        <v>80</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3">
         <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.072</v>
+      </c>
+      <c r="F23" s="3">
+        <v>120</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3">
         <v>24</v>
       </c>
       <c r="E24" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.144</v>
+      </c>
+      <c r="F24" s="3">
+        <v>240</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25" s="3">
         <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.048</v>
+      </c>
+      <c r="F25" s="3">
+        <v>120</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3">
         <v>38</v>
       </c>
       <c r="E26" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.304</v>
+      </c>
+      <c r="F26" s="3">
+        <v>380</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3">
         <v>0.08</v>
       </c>
       <c r="E27" s="3">
-        <v>0.08</v>
+        <v>1.08</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1407,17 +1690,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G28"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="7" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1709,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1437,416 +1720,416 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>80</v>
       </c>
       <c r="E3" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>229.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>31.52</v>
       </c>
       <c r="E4" s="3">
-        <v>8.896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10.72</v>
       </c>
       <c r="E5" s="3">
-        <v>3.216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18.546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
         <v>32</v>
       </c>
       <c r="E6" s="3">
-        <v>9.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>190.96</v>
       </c>
       <c r="E7" s="3">
-        <v>45.288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>387.649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>40</v>
       </c>
       <c r="E8" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>12.333</v>
       </c>
       <c r="E9" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>18</v>
       </c>
       <c r="E10" s="3">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.484</v>
       </c>
       <c r="E11" s="3">
-        <v>0.145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>80</v>
+      </c>
+      <c r="E12" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3">
+        <v>160</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14.545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>240</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3.429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3">
+        <v>240</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3">
+        <v>80</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>160</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3">
+        <v>240</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3">
+        <v>480</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>240</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>6</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="3">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>11</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="3">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="C27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>760</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.48</v>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E28" s="3">
+        <v>21.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/app/temp/Table.xlsx
+++ b/app/temp/Table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="37">
   <si>
     <t>Стеклопластик</t>
   </si>
@@ -117,13 +117,13 @@
     <t>Уголок Металлический 140x90x8</t>
   </si>
   <si>
-    <t>23.442</t>
-  </si>
-  <si>
-    <t>115.480</t>
-  </si>
-  <si>
-    <t>234.420</t>
+    <t>16.574</t>
+  </si>
+  <si>
+    <t>121.647</t>
+  </si>
+  <si>
+    <t>246.938</t>
   </si>
 </sst>
 </file>
@@ -1280,93 +1280,70 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>0.617</v>
+        <v>0.9</v>
       </c>
       <c r="E8" s="3">
-        <v>0.524</v>
+        <v>0.495</v>
       </c>
       <c r="F8" s="3">
-        <v>6.17</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3">
-        <v>5.24</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
-        <v>0.9</v>
+        <v>0.024</v>
       </c>
       <c r="E9" s="3">
-        <v>0.495</v>
+        <v>0.242</v>
       </c>
       <c r="F9" s="3">
-        <v>9</v>
+        <v>0.24</v>
       </c>
       <c r="G9" s="3">
-        <v>4.95</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>0.024</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0.242</v>
+        <v>2.4</v>
       </c>
       <c r="F10" s="3">
-        <v>0.24</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3">
         <v>24</v>
       </c>
     </row>
@@ -1690,7 +1667,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -1805,10 +1782,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="3">
-        <v>190.96</v>
+        <v>197.127</v>
       </c>
       <c r="E7" s="3">
-        <v>387.649</v>
+        <v>400.16700000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1839,10 +1816,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="3">
-        <v>12.333</v>
+        <v>6.167</v>
       </c>
       <c r="E9" s="3">
-        <v>10.483</v>
+        <v>5.242</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,240 +1873,240 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3">
-        <v>160</v>
-      </c>
-      <c r="E17" s="3">
-        <v>14.545</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E18" s="3">
-        <v>8</v>
+        <v>14.545</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="3">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="E19" s="3">
-        <v>3.429</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="E20" s="3">
-        <v>8.8</v>
+        <v>3.429</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="3">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="E21" s="3">
-        <v>3.6</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="3">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="E22" s="3">
-        <v>2.64</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="3">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="E24" s="3">
-        <v>1.44</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="3">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="E25" s="3">
-        <v>2.88</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E26" s="3">
-        <v>0.96</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>760</v>
+        <v>240</v>
       </c>
       <c r="E27" s="3">
-        <v>6.08</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>760</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>12</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3">
         <v>1.6</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="3">
         <v>21.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/app/temp/Table.xlsx
+++ b/app/temp/Table.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Новая карточка" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Новая карточка 1" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Сводная" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="М1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="М2" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="С1" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Сводная" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
   <si>
     <t>Стеклопластик</t>
   </si>
@@ -117,13 +118,25 @@
     <t>Уголок Металлический 140x90x8</t>
   </si>
   <si>
-    <t>16.574</t>
-  </si>
-  <si>
-    <t>121.647</t>
-  </si>
-  <si>
-    <t>246.938</t>
+    <t>Количество на одну стремянку, шт</t>
+  </si>
+  <si>
+    <t>Масса на одну стремянку, кг</t>
+  </si>
+  <si>
+    <t>Профиль 88x58x5</t>
+  </si>
+  <si>
+    <t>Трубка рифленая d32</t>
+  </si>
+  <si>
+    <t>Пластина (заглушка)</t>
+  </si>
+  <si>
+    <t>Шпилька M8x110</t>
+  </si>
+  <si>
+    <t>Болт M8x80</t>
   </si>
 </sst>
 </file>
@@ -585,10 +598,10 @@
         <v>11.48</v>
       </c>
       <c r="F3" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3">
-        <v>114.8</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -608,10 +621,10 @@
         <v>3.972</v>
       </c>
       <c r="F4" s="3">
-        <v>15.76</v>
+        <v>7.88</v>
       </c>
       <c r="G4" s="3">
-        <v>39.72</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -631,10 +644,10 @@
         <v>0.927</v>
       </c>
       <c r="F5" s="3">
-        <v>5.36</v>
+        <v>2.68</v>
       </c>
       <c r="G5" s="3">
-        <v>9.27</v>
+        <v>4.635</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -654,10 +667,10 @@
         <v>28.8</v>
       </c>
       <c r="F6" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3">
-        <v>288</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -677,10 +690,10 @@
         <v>15.322</v>
       </c>
       <c r="F7" s="3">
-        <v>75.48</v>
+        <v>37.74</v>
       </c>
       <c r="G7" s="3">
-        <v>153.22</v>
+        <v>76.61</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -700,10 +713,10 @@
         <v>4.36</v>
       </c>
       <c r="F8" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3">
-        <v>43.6</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -723,10 +736,10 @@
         <v>0.524</v>
       </c>
       <c r="F9" s="3">
-        <v>6.17</v>
+        <v>3.085</v>
       </c>
       <c r="G9" s="3">
-        <v>5.24</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -746,10 +759,10 @@
         <v>0.495</v>
       </c>
       <c r="F10" s="3">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="G10" s="3">
-        <v>4.95</v>
+        <v>2.475</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -769,10 +782,10 @@
         <v>0.242</v>
       </c>
       <c r="F11" s="3">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="G11" s="3">
-        <v>2.42</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -792,10 +805,10 @@
         <v>2.4</v>
       </c>
       <c r="F12" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -847,10 +860,10 @@
         <v>0.727</v>
       </c>
       <c r="F16" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3">
-        <v>7.27</v>
+        <v>3.635</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,10 +883,10 @@
         <v>0.4</v>
       </c>
       <c r="F17" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -893,10 +906,10 @@
         <v>0.171</v>
       </c>
       <c r="F18" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G18" s="3">
-        <v>1.71</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -916,10 +929,10 @@
         <v>0.44</v>
       </c>
       <c r="F19" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G19" s="3">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -939,10 +952,10 @@
         <v>0.18</v>
       </c>
       <c r="F20" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G20" s="3">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -962,10 +975,10 @@
         <v>0.132</v>
       </c>
       <c r="F21" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G21" s="3">
-        <v>1.32</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,10 +998,10 @@
         <v>0.136</v>
       </c>
       <c r="F22" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G22" s="3">
-        <v>1.36</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1008,10 +1021,10 @@
         <v>0.072</v>
       </c>
       <c r="F23" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G23" s="3">
-        <v>0.72</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1031,10 +1044,10 @@
         <v>0.144</v>
       </c>
       <c r="F24" s="3">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="G24" s="3">
-        <v>1.44</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1054,10 +1067,10 @@
         <v>0.048</v>
       </c>
       <c r="F25" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G25" s="3">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1077,10 +1090,10 @@
         <v>0.304</v>
       </c>
       <c r="F26" s="3">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="G26" s="3">
-        <v>3.04</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,10 +1113,10 @@
         <v>1.08</v>
       </c>
       <c r="F27" s="3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G27" s="3">
-        <v>10.8</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -1174,16 +1187,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="E3" s="3">
-        <v>11.48</v>
+        <v>11.767</v>
       </c>
       <c r="F3" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3">
-        <v>114.8</v>
+        <v>117.67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1197,16 +1210,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>1.576</v>
+        <v>1.376</v>
       </c>
       <c r="E4" s="3">
-        <v>3.972</v>
+        <v>3.468</v>
       </c>
       <c r="F4" s="3">
-        <v>15.76</v>
+        <v>13.76</v>
       </c>
       <c r="G4" s="3">
-        <v>39.72</v>
+        <v>34.68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1243,16 +1256,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="3">
-        <v>1.6</v>
+        <v>1.435</v>
       </c>
       <c r="E6" s="3">
-        <v>28.8</v>
+        <v>25.83</v>
       </c>
       <c r="F6" s="3">
-        <v>16</v>
+        <v>14.35</v>
       </c>
       <c r="G6" s="3">
-        <v>288</v>
+        <v>258.3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,86 +1278,132 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
+      <c r="D7" s="3">
+        <v>7.548</v>
       </c>
       <c r="E7" s="3">
         <v>15.322</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>36</v>
+      <c r="F7" s="3">
+        <v>75.48</v>
+      </c>
+      <c r="G7" s="3">
+        <v>153.22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="E8" s="3">
-        <v>0.495</v>
+        <v>4.469</v>
       </c>
       <c r="F8" s="3">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3">
-        <v>4.95</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3">
-        <v>0.024</v>
+        <v>0.633</v>
       </c>
       <c r="E9" s="3">
-        <v>0.242</v>
+        <v>0.538</v>
       </c>
       <c r="F9" s="3">
-        <v>0.24</v>
+        <v>6.33</v>
       </c>
       <c r="G9" s="3">
-        <v>2.42</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.024</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.242</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>40</v>
-      </c>
-      <c r="G10" s="3">
-        <v>24</v>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.46</v>
+      </c>
+      <c r="F12" s="3">
+        <v>41</v>
+      </c>
+      <c r="G12" s="3">
+        <v>24.6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1667,7 +1726,349 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G16"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>15.78</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.92</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.903</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="F11" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.296</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.136</v>
+      </c>
+      <c r="F13" s="3">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F14" s="3">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F15" s="3">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3">
+        <v>60</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="F16" s="3">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -1714,10 +2115,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="3">
-        <v>80</v>
+        <v>62.36</v>
       </c>
       <c r="E3" s="3">
-        <v>229.6</v>
+        <v>178.97299999999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1731,10 +2132,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>31.52</v>
+        <v>21.64</v>
       </c>
       <c r="E4" s="3">
-        <v>79.43</v>
+        <v>54.533</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1748,10 +2149,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>10.72</v>
+        <v>8.52</v>
       </c>
       <c r="E5" s="3">
-        <v>18.546</v>
+        <v>14.74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,10 +2166,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="3">
-        <v>32</v>
+        <v>22.35</v>
       </c>
       <c r="E6" s="3">
-        <v>576</v>
+        <v>402.3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1782,10 +2183,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="3">
-        <v>197.127</v>
+        <v>113.22</v>
       </c>
       <c r="E7" s="3">
-        <v>400.16700000000003</v>
+        <v>229.837</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1799,10 +2200,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3">
-        <v>43.6</v>
+        <v>66.49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1816,10 +2217,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="3">
-        <v>6.167</v>
+        <v>9.417</v>
       </c>
       <c r="E9" s="3">
-        <v>5.242</v>
+        <v>8.004</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1833,10 +2234,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="E10" s="3">
-        <v>9.9</v>
+        <v>7.425</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,10 +2251,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="3">
-        <v>0.484</v>
+        <v>0.363</v>
       </c>
       <c r="E11" s="3">
-        <v>4.84</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1867,246 +2268,331 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="3">
-        <v>160</v>
-      </c>
-      <c r="E18" s="3">
-        <v>14.545</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="3">
-        <v>80</v>
-      </c>
-      <c r="E19" s="3">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E20" s="3">
-        <v>3.429</v>
+        <v>10.909</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="3">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3">
-        <v>8.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="3">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="E22" s="3">
-        <v>3.6</v>
+        <v>2.571</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>2.64</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="3">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E24" s="3">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="3">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3">
-        <v>1.44</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="3">
-        <v>480</v>
+        <v>128</v>
       </c>
       <c r="E26" s="3">
-        <v>2.88</v>
+        <v>2.176</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="E27" s="3">
-        <v>0.96</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="3">
-        <v>760</v>
+        <v>420</v>
       </c>
       <c r="E28" s="3">
-        <v>6.08</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>210</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3">
+        <v>570</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>12</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="E29" s="3">
-        <v>21.6</v>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3">
+        <v>14</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>14</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.296</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/app/temp/Table.xlsx
+++ b/app/temp/Table.xlsx
@@ -4,17 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="М1" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="М2" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="С1" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Сводная" state="visible" r:id="rId7"/>
+    <sheet sheetId="1" name="undefined" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Сводная" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="34">
   <si>
     <t>Стеклопластик</t>
   </si>
@@ -116,27 +114,6 @@
   </si>
   <si>
     <t>Уголок Металлический 140x90x8</t>
-  </si>
-  <si>
-    <t>Количество на одну стремянку, шт</t>
-  </si>
-  <si>
-    <t>Масса на одну стремянку, кг</t>
-  </si>
-  <si>
-    <t>Профиль 88x58x5</t>
-  </si>
-  <si>
-    <t>Трубка рифленая d32</t>
-  </si>
-  <si>
-    <t>Пластина (заглушка)</t>
-  </si>
-  <si>
-    <t>Шпилька M8x110</t>
-  </si>
-  <si>
-    <t>Болт M8x80</t>
   </si>
 </sst>
 </file>
@@ -598,10 +575,10 @@
         <v>11.48</v>
       </c>
       <c r="F3" s="3">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G3" s="3">
-        <v>57.4</v>
+        <v>183.68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -621,10 +598,10 @@
         <v>3.972</v>
       </c>
       <c r="F4" s="3">
-        <v>7.88</v>
+        <v>25.216</v>
       </c>
       <c r="G4" s="3">
-        <v>19.86</v>
+        <v>63.552</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,10 +621,10 @@
         <v>0.927</v>
       </c>
       <c r="F5" s="3">
-        <v>2.68</v>
+        <v>8.576</v>
       </c>
       <c r="G5" s="3">
-        <v>4.635</v>
+        <v>14.832</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -667,10 +644,10 @@
         <v>28.8</v>
       </c>
       <c r="F6" s="3">
-        <v>8</v>
+        <v>25.6</v>
       </c>
       <c r="G6" s="3">
-        <v>144</v>
+        <v>460.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,10 +667,10 @@
         <v>15.322</v>
       </c>
       <c r="F7" s="3">
-        <v>37.74</v>
+        <v>120.768</v>
       </c>
       <c r="G7" s="3">
-        <v>76.61</v>
+        <v>245.152</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,10 +690,10 @@
         <v>4.36</v>
       </c>
       <c r="F8" s="3">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G8" s="3">
-        <v>21.8</v>
+        <v>69.76</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -736,10 +713,10 @@
         <v>0.524</v>
       </c>
       <c r="F9" s="3">
-        <v>3.085</v>
+        <v>9.872</v>
       </c>
       <c r="G9" s="3">
-        <v>2.62</v>
+        <v>8.384</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -759,10 +736,10 @@
         <v>0.495</v>
       </c>
       <c r="F10" s="3">
-        <v>4.5</v>
+        <v>14.4</v>
       </c>
       <c r="G10" s="3">
-        <v>2.475</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -782,10 +759,10 @@
         <v>0.242</v>
       </c>
       <c r="F11" s="3">
-        <v>0.12</v>
+        <v>0.384</v>
       </c>
       <c r="G11" s="3">
-        <v>1.21</v>
+        <v>3.872</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -805,10 +782,10 @@
         <v>2.4</v>
       </c>
       <c r="F12" s="3">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G12" s="3">
-        <v>12</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,10 +837,10 @@
         <v>0.727</v>
       </c>
       <c r="F16" s="3">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="G16" s="3">
-        <v>3.635</v>
+        <v>11.632</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,10 +860,10 @@
         <v>0.4</v>
       </c>
       <c r="F17" s="3">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -906,10 +883,10 @@
         <v>0.171</v>
       </c>
       <c r="F18" s="3">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="G18" s="3">
-        <v>0.855</v>
+        <v>2.736</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,10 +906,10 @@
         <v>0.44</v>
       </c>
       <c r="F19" s="3">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="G19" s="3">
-        <v>2.2</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -952,10 +929,10 @@
         <v>0.18</v>
       </c>
       <c r="F20" s="3">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="G20" s="3">
-        <v>0.9</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,10 +952,10 @@
         <v>0.132</v>
       </c>
       <c r="F21" s="3">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G21" s="3">
-        <v>0.66</v>
+        <v>2.112</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,10 +975,10 @@
         <v>0.136</v>
       </c>
       <c r="F22" s="3">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="G22" s="3">
-        <v>0.68</v>
+        <v>2.176</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,10 +998,10 @@
         <v>0.072</v>
       </c>
       <c r="F23" s="3">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="G23" s="3">
-        <v>0.36</v>
+        <v>1.152</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,10 +1021,10 @@
         <v>0.144</v>
       </c>
       <c r="F24" s="3">
-        <v>120</v>
+        <v>384</v>
       </c>
       <c r="G24" s="3">
-        <v>0.72</v>
+        <v>2.304</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,10 +1044,10 @@
         <v>0.048</v>
       </c>
       <c r="F25" s="3">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="G25" s="3">
-        <v>0.24</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1090,10 +1067,10 @@
         <v>0.304</v>
       </c>
       <c r="F26" s="3">
-        <v>190</v>
+        <v>608</v>
       </c>
       <c r="G26" s="3">
-        <v>1.52</v>
+        <v>4.864</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1113,10 +1090,10 @@
         <v>1.08</v>
       </c>
       <c r="F27" s="3">
-        <v>0.4</v>
+        <v>1.28</v>
       </c>
       <c r="G27" s="3">
-        <v>5.4</v>
+        <v>17.28</v>
       </c>
     </row>
   </sheetData>
@@ -1136,943 +1113,6 @@
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4.1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>11.767</v>
-      </c>
-      <c r="F3" s="3">
-        <v>41</v>
-      </c>
-      <c r="G3" s="3">
-        <v>117.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.376</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.468</v>
-      </c>
-      <c r="F4" s="3">
-        <v>13.76</v>
-      </c>
-      <c r="G4" s="3">
-        <v>34.68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.536</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.927</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5.36</v>
-      </c>
-      <c r="G5" s="3">
-        <v>9.27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.435</v>
-      </c>
-      <c r="E6" s="3">
-        <v>25.83</v>
-      </c>
-      <c r="F6" s="3">
-        <v>14.35</v>
-      </c>
-      <c r="G6" s="3">
-        <v>258.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3">
-        <v>7.548</v>
-      </c>
-      <c r="E7" s="3">
-        <v>15.322</v>
-      </c>
-      <c r="F7" s="3">
-        <v>75.48</v>
-      </c>
-      <c r="G7" s="3">
-        <v>153.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4.1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.469</v>
-      </c>
-      <c r="F8" s="3">
-        <v>41</v>
-      </c>
-      <c r="G8" s="3">
-        <v>44.69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.633</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.538</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6.33</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5.38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.495</v>
-      </c>
-      <c r="F10" s="3">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.024</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.242</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4.1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.46</v>
-      </c>
-      <c r="F12" s="3">
-        <v>41</v>
-      </c>
-      <c r="G12" s="3">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="3">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.727</v>
-      </c>
-      <c r="F16" s="3">
-        <v>80</v>
-      </c>
-      <c r="G16" s="3">
-        <v>7.27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>40</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="3">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.171</v>
-      </c>
-      <c r="F18" s="3">
-        <v>120</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="3">
-        <v>20</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="F19" s="3">
-        <v>200</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="3">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F20" s="3">
-        <v>120</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>6</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.132</v>
-      </c>
-      <c r="F21" s="3">
-        <v>40</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.136</v>
-      </c>
-      <c r="F22" s="3">
-        <v>80</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3">
-        <v>12</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.072</v>
-      </c>
-      <c r="F23" s="3">
-        <v>120</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="3">
-        <v>24</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.144</v>
-      </c>
-      <c r="F24" s="3">
-        <v>240</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="3">
-        <v>12</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.048</v>
-      </c>
-      <c r="F25" s="3">
-        <v>120</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>11</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="3">
-        <v>38</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.304</v>
-      </c>
-      <c r="F26" s="3">
-        <v>380</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>12</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G27" s="3">
-        <v>10.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3">
-        <v>15.78</v>
-      </c>
-      <c r="F3" s="3">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.9</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4.9</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.36</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.903</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.36</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3.903</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.56</v>
-      </c>
-      <c r="F11" s="3">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.296</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.136</v>
-      </c>
-      <c r="F13" s="3">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F14" s="3">
-        <v>30</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="F15" s="3">
-        <v>30</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="3">
-        <v>60</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="F16" s="3">
-        <v>60</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A9:E9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="7" width="2" customWidth="1"/>
@@ -2115,10 +1155,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="3">
-        <v>62.36</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3">
-        <v>178.97299999999998</v>
+        <v>183.68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2132,10 +1172,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>21.64</v>
+        <v>25.216</v>
       </c>
       <c r="E4" s="3">
-        <v>54.533</v>
+        <v>63.544</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2149,10 +1189,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>8.52</v>
+        <v>8.576</v>
       </c>
       <c r="E5" s="3">
-        <v>14.74</v>
+        <v>14.836</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2166,10 +1206,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="3">
-        <v>22.35</v>
+        <v>25.6</v>
       </c>
       <c r="E6" s="3">
-        <v>402.3</v>
+        <v>460.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2183,10 +1223,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="3">
-        <v>113.22</v>
+        <v>120.768</v>
       </c>
       <c r="E7" s="3">
-        <v>229.837</v>
+        <v>245.159</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2200,10 +1240,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3">
-        <v>66.49</v>
+        <v>69.76</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2217,10 +1257,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="3">
-        <v>9.417</v>
+        <v>9.867</v>
       </c>
       <c r="E9" s="3">
-        <v>8.004</v>
+        <v>8.387</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2234,10 +1274,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>13.5</v>
+        <v>14.4</v>
       </c>
       <c r="E10" s="3">
-        <v>7.425</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2251,10 +1291,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="3">
-        <v>0.363</v>
+        <v>0.387</v>
       </c>
       <c r="E11" s="3">
-        <v>3.63</v>
+        <v>3.872</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2268,331 +1308,246 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="3">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4.9</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.2</v>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3">
+        <v>128</v>
+      </c>
+      <c r="E16" s="3">
+        <v>11.636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6.4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3">
+        <v>192</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.743</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
+      <c r="A19" s="3">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>320</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7.04</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="E20" s="3">
-        <v>10.909</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>2.112</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="E22" s="3">
-        <v>2.571</v>
+        <v>2.176</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>192</v>
       </c>
       <c r="E23" s="3">
-        <v>6.6</v>
+        <v>1.152</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="3">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="E24" s="3">
-        <v>2.7</v>
+        <v>2.304</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="3">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="E25" s="3">
-        <v>1.98</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="3">
-        <v>128</v>
+        <v>608</v>
       </c>
       <c r="E26" s="3">
-        <v>2.176</v>
+        <v>4.864</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3">
-        <v>210</v>
+        <v>1.28</v>
       </c>
       <c r="E27" s="3">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>9</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="3">
-        <v>420</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>10</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="3">
-        <v>210</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>11</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="3">
-        <v>570</v>
-      </c>
-      <c r="E30" s="3">
-        <v>4.56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>12</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="E31" s="3">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>13</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="3">
-        <v>14</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>14</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="3">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0.296</v>
+        <v>17.28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/app/temp/Table.xlsx
+++ b/app/temp/Table.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="undefined" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Сводная" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="C1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="М1" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Сводная" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="66">
   <si>
     <t>Стеклопластик</t>
   </si>
@@ -26,46 +27,151 @@
     <t>Ед. измерения</t>
   </si>
   <si>
-    <t>Количество на один мосток, шт</t>
+    <t>Количество на одну стремянку</t>
+  </si>
+  <si>
+    <t>Масса на одну стремянку, кг</t>
+  </si>
+  <si>
+    <t>Общее количество</t>
+  </si>
+  <si>
+    <t>Общая масса, кг</t>
+  </si>
+  <si>
+    <t>Профиль 88x58x5</t>
+  </si>
+  <si>
+    <t>м/пог</t>
+  </si>
+  <si>
+    <t>Трубка рифленая d32</t>
+  </si>
+  <si>
+    <t>Швеллер 150x50x6</t>
+  </si>
+  <si>
+    <t>Уголок 75x75x6</t>
+  </si>
+  <si>
+    <t>Пластина (заглушка)</t>
+  </si>
+  <si>
+    <t>м2</t>
+  </si>
+  <si>
+    <t>Профиль 40x40x3</t>
+  </si>
+  <si>
+    <t>1.615</t>
+  </si>
+  <si>
+    <t>7.000</t>
+  </si>
+  <si>
+    <t>5.950</t>
+  </si>
+  <si>
+    <t>Трубка круглая d32</t>
+  </si>
+  <si>
+    <t>Крепеж</t>
+  </si>
+  <si>
+    <t>Болт M8x80</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>24.000</t>
+  </si>
+  <si>
+    <t>0.888</t>
+  </si>
+  <si>
+    <t>Болт M8x60</t>
+  </si>
+  <si>
+    <t>Гайка M8</t>
+  </si>
+  <si>
+    <t>0.162</t>
+  </si>
+  <si>
+    <t>54.000</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>Гровер 8</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>Шайба увеличенная 8</t>
+  </si>
+  <si>
+    <t>108.000</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>Шпилька M8x110</t>
+  </si>
+  <si>
+    <t>Болт M8x30</t>
+  </si>
+  <si>
+    <t>Соединительный крепеж</t>
+  </si>
+  <si>
+    <t>Болт M12x35</t>
+  </si>
+  <si>
+    <t>Гайка M12</t>
+  </si>
+  <si>
+    <t>Шайба увеличенная 12</t>
+  </si>
+  <si>
+    <t>Гровер 12</t>
+  </si>
+  <si>
+    <t>Количество на один мосток</t>
   </si>
   <si>
     <t>Масса на один мосток, кг</t>
   </si>
   <si>
-    <t>Общее количество, шт</t>
-  </si>
-  <si>
-    <t>Общая масса, кг</t>
-  </si>
-  <si>
-    <t>Швеллер 150x50x6</t>
-  </si>
-  <si>
-    <t>м/пог</t>
-  </si>
-  <si>
-    <t>Швеллер 74x60x7</t>
-  </si>
-  <si>
-    <t>Уголок 75x75x6</t>
+    <t>Профиль 180x60x8</t>
   </si>
   <si>
     <t>Решетчатый настил</t>
   </si>
   <si>
-    <t>м2</t>
-  </si>
-  <si>
     <t>Профиль 50x50x6</t>
   </si>
   <si>
     <t>Швеллер 62x30x5</t>
   </si>
   <si>
-    <t>Профиль 40x40x3</t>
-  </si>
-  <si>
-    <t>Трубка круглая d32</t>
+    <t>5.115</t>
+  </si>
+  <si>
+    <t>37.200</t>
+  </si>
+  <si>
+    <t>20.460</t>
   </si>
   <si>
     <t>Пластина 110x110x5</t>
@@ -74,46 +180,37 @@
     <t>Отбойная полоса 100x3</t>
   </si>
   <si>
-    <t>Крепеж</t>
-  </si>
-  <si>
-    <t>Болт M12x85</t>
-  </si>
-  <si>
-    <t>шт</t>
+    <t>Болт M12x125</t>
   </si>
   <si>
     <t>Болт M12x95</t>
   </si>
   <si>
-    <t>Гайка M12</t>
-  </si>
-  <si>
-    <t>Шайба увеличенная 12</t>
-  </si>
-  <si>
-    <t>Гровер 12</t>
-  </si>
-  <si>
     <t>Болт M8x70</t>
   </si>
   <si>
-    <t>Болт M8x30</t>
-  </si>
-  <si>
-    <t>Гайка M8</t>
-  </si>
-  <si>
-    <t>Шайба увеличенная 8</t>
-  </si>
-  <si>
-    <t>Гровер 8</t>
-  </si>
-  <si>
-    <t>Заклепка</t>
+    <t>Заклепка вытяжная</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>336.000</t>
+  </si>
+  <si>
+    <t>2.688</t>
   </si>
   <si>
     <t>Уголок Металлический 140x90x8</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>48.000</t>
+  </si>
+  <si>
+    <t>0.384</t>
   </si>
 </sst>
 </file>
@@ -513,14 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="2" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -569,16 +665,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="E3" s="3">
-        <v>11.48</v>
+        <v>8.416</v>
       </c>
       <c r="F3" s="3">
-        <v>64</v>
+        <v>6.4</v>
       </c>
       <c r="G3" s="3">
-        <v>183.68</v>
+        <v>16.832</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,16 +688,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>1.576</v>
+        <v>1.6</v>
       </c>
       <c r="E4" s="3">
-        <v>3.972</v>
+        <v>1.28</v>
       </c>
       <c r="F4" s="3">
-        <v>25.216</v>
+        <v>3.2</v>
       </c>
       <c r="G4" s="3">
-        <v>63.552</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -615,16 +711,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>0.536</v>
+        <v>1.02</v>
       </c>
       <c r="E5" s="3">
-        <v>0.927</v>
+        <v>2.927</v>
       </c>
       <c r="F5" s="3">
-        <v>8.576</v>
+        <v>2.04</v>
       </c>
       <c r="G5" s="3">
-        <v>14.832</v>
+        <v>5.854</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -635,19 +731,19 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
-        <v>1.6</v>
+        <v>0.36</v>
       </c>
       <c r="E6" s="3">
-        <v>28.8</v>
+        <v>0.623</v>
       </c>
       <c r="F6" s="3">
-        <v>25.6</v>
+        <v>0.72</v>
       </c>
       <c r="G6" s="3">
-        <v>460.8</v>
+        <v>1.246</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="3">
-        <v>7.548</v>
+        <v>0.01</v>
       </c>
       <c r="E7" s="3">
-        <v>15.322</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="3">
-        <v>120.768</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="3">
-        <v>245.152</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -683,17 +779,17 @@
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
-        <v>4</v>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="3">
-        <v>4.36</v>
-      </c>
-      <c r="F8" s="3">
-        <v>64</v>
-      </c>
-      <c r="G8" s="3">
-        <v>69.76</v>
+        <v>0.255</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -701,405 +797,346 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3">
-        <v>0.617</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="3">
-        <v>0.524</v>
+        <v>0.11</v>
       </c>
       <c r="F9" s="3">
-        <v>9.872</v>
+        <v>0.4</v>
       </c>
       <c r="G9" s="3">
-        <v>8.384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.495</v>
-      </c>
-      <c r="F10" s="3">
-        <v>14.4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.024</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.242</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.384</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3.872</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>64</v>
-      </c>
-      <c r="G12" s="3">
-        <v>38.4</v>
-      </c>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>7</v>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.222</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>0.727</v>
+        <v>0.145</v>
       </c>
       <c r="F16" s="3">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3">
-        <v>11.632</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="3">
-        <v>4</v>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E17" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>64</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6.4</v>
+        <v>0.066</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3">
-        <v>12</v>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E18" s="3">
-        <v>0.171</v>
-      </c>
-      <c r="F18" s="3">
-        <v>192</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2.736</v>
+        <v>0.044</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="3">
-        <v>20</v>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E19" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="F19" s="3">
-        <v>320</v>
-      </c>
-      <c r="G19" s="3">
-        <v>7.04</v>
+        <v>0.132</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F20" s="3">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="G20" s="3">
-        <v>2.88</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3">
         <v>6</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
       <c r="E21" s="3">
-        <v>0.132</v>
+        <v>0.102</v>
       </c>
       <c r="F21" s="3">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G21" s="3">
-        <v>2.112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+        <v>0.204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.029</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.088</v>
+      </c>
+      <c r="F30" s="3">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0.136</v>
-      </c>
-      <c r="F22" s="3">
-        <v>128</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2.176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3">
-        <v>12</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.072</v>
-      </c>
-      <c r="F23" s="3">
-        <v>192</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1.152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="3">
-        <v>24</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.144</v>
-      </c>
-      <c r="F24" s="3">
-        <v>384</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2.304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="3">
-        <v>12</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.048</v>
-      </c>
-      <c r="F25" s="3">
-        <v>192</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.768</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>11</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="3">
-        <v>38</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.304</v>
-      </c>
-      <c r="F26" s="3">
-        <v>608</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4.864</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>12</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1.28</v>
-      </c>
-      <c r="G27" s="3">
-        <v>17.28</v>
+      <c r="G30" s="3">
+        <v>0.176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -1108,13 +1145,754 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G37"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>28.12</v>
+      </c>
+      <c r="F3" s="3">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
+        <v>112.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.144</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.577</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.576</v>
+      </c>
+      <c r="G4" s="3">
+        <v>14.308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.536</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.927</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.144</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.728</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15.322</v>
+      </c>
+      <c r="F7" s="3">
+        <v>30.912</v>
+      </c>
+      <c r="G7" s="3">
+        <v>61.288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.36</v>
+      </c>
+      <c r="F8" s="3">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3">
+        <v>17.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.048</v>
+      </c>
+      <c r="F9" s="3">
+        <v>29.6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.024</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.242</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.096</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.171</v>
+      </c>
+      <c r="F19" s="3">
+        <v>48</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="F20" s="3">
+        <v>80</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F21" s="3">
+        <v>48</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.132</v>
+      </c>
+      <c r="F22" s="3">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.136</v>
+      </c>
+      <c r="F23" s="3">
+        <v>32</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.072</v>
+      </c>
+      <c r="F24" s="3">
+        <v>48</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.144</v>
+      </c>
+      <c r="F25" s="3">
+        <v>96</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.048</v>
+      </c>
+      <c r="F26" s="3">
+        <v>48</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.416</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.392</v>
+      </c>
+      <c r="F33" s="3">
+        <v>16</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.057</v>
+      </c>
+      <c r="F34" s="3">
+        <v>16</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="3">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.176</v>
+      </c>
+      <c r="F35" s="3">
+        <v>32</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>16</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.032</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A31:E31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G57"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="5" width="23" customWidth="1"/>
     <col min="6" max="7" width="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1155,10 +1933,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="3">
-        <v>64</v>
+        <v>10.975999999999999</v>
       </c>
       <c r="E3" s="3">
-        <v>183.68</v>
+        <v>31.139000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1172,10 +1950,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>25.216</v>
+        <v>3.2</v>
       </c>
       <c r="E4" s="3">
-        <v>63.544</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1189,10 +1967,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>8.576</v>
+        <v>2.04</v>
       </c>
       <c r="E5" s="3">
-        <v>14.836</v>
+        <v>5.855</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1203,13 +1981,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
-        <v>25.6</v>
+        <v>2.864</v>
       </c>
       <c r="E6" s="3">
-        <v>460.8</v>
+        <v>4.955</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,16 +1995,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="3">
-        <v>120.768</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="3">
-        <v>245.159</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1240,10 +2018,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>64</v>
+        <v>36.6</v>
       </c>
       <c r="E8" s="3">
-        <v>69.76</v>
+        <v>10.143</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,303 +2029,534 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3">
-        <v>9.867</v>
+        <v>37.6</v>
       </c>
       <c r="E9" s="3">
-        <v>8.387</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>14.4</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3">
-        <v>7.92</v>
+        <v>112.48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3">
-        <v>0.387</v>
+        <v>6.4</v>
       </c>
       <c r="E11" s="3">
-        <v>3.872</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>64</v>
+        <v>30.912</v>
       </c>
       <c r="E12" s="3">
-        <v>38.4</v>
+        <v>61.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3">
+        <v>17.44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.097</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="3">
-        <v>128</v>
-      </c>
-      <c r="E16" s="3">
-        <v>11.636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3">
-        <v>64</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="3">
-        <v>192</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2.743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="3">
-        <v>320</v>
-      </c>
-      <c r="E19" s="3">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="3">
-        <v>192</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>6</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="3">
-        <v>64</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3">
-        <v>128</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3">
-        <v>192</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1.152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="3">
-        <v>384</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2.304</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="3">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="E25" s="3">
-        <v>0.768</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="3">
-        <v>608</v>
+        <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>4.864</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>102</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>102</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.40800000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>204</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="3">
+        <v>44</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1.28</v>
-      </c>
-      <c r="E27" s="3">
-        <v>17.28</v>
+      <c r="B32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>14</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="3">
+        <v>48</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="3">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>48</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>16</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>22</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>336</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2.6879999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>1</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>2</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="3">
+        <v>20</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="3">
+        <v>40</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="3">
+        <v>20</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>5</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3">
+        <v>16</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1.568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="3">
+        <v>48</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.384</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/app/temp/Table.xlsx
+++ b/app/temp/Table.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="52">
   <si>
     <t>Стеклопластик</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Профиль 50x50x6</t>
   </si>
   <si>
-    <t>Швеллер 62x30x5</t>
+    <t>Профиль 88x58x5</t>
   </si>
   <si>
     <t>Профиль 40x40x3</t>
@@ -133,13 +133,19 @@
     <t>0.704</t>
   </si>
   <si>
-    <t>232.000</t>
+    <t>176.000</t>
   </si>
   <si>
-    <t>1.856</t>
+    <t>1.408</t>
   </si>
   <si>
     <t>Уголок Металлический 140x90x8</t>
+  </si>
+  <si>
+    <t>Винт M8x30</t>
+  </si>
+  <si>
+    <t>Заклепка резьбовая M8</t>
   </si>
   <si>
     <t>Соединительный крепеж</t>
@@ -148,43 +154,25 @@
     <t>Болт M12x35</t>
   </si>
   <si>
-    <t>0.096</t>
-  </si>
-  <si>
-    <t>24.000</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
     <t>0.512</t>
   </si>
   <si>
-    <t>1344.000</t>
+    <t>1024.000</t>
   </si>
   <si>
-    <t>10.752</t>
+    <t>8.192</t>
   </si>
   <si>
-    <t>192.000</t>
+    <t>128.000</t>
   </si>
   <si>
-    <t>1.536</t>
-  </si>
-  <si>
-    <t>168.000</t>
-  </si>
-  <si>
-    <t>1.344</t>
+    <t>1.024</t>
   </si>
   <si>
     <t>Количество на одну стремянку</t>
   </si>
   <si>
     <t>Масса на одну стремянку, кг</t>
-  </si>
-  <si>
-    <t>Профиль 88x58x5</t>
   </si>
   <si>
     <t>Трубка рифленая d32</t>
@@ -596,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -770,13 +758,13 @@
         <v>4.8</v>
       </c>
       <c r="E8" s="3">
-        <v>5.232</v>
+        <v>12.624</v>
       </c>
       <c r="F8" s="3">
         <v>9.6</v>
       </c>
       <c r="G8" s="3">
-        <v>10.464</v>
+        <v>25.248</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1158,7 +1146,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -1179,67 +1167,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.272</v>
+      </c>
+      <c r="F28" s="3">
+        <v>32</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>40</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -1248,89 +1259,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -1339,7 +1396,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -1513,13 +1570,13 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="3">
-        <v>3.924</v>
+        <v>9.468</v>
       </c>
       <c r="F8" s="3">
         <v>7.2</v>
       </c>
       <c r="G8" s="3">
-        <v>7.848</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1887,21 +1944,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -1922,67 +1979,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -1991,89 +2071,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -2082,7 +2208,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -2256,13 +2382,13 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="3">
-        <v>3.924</v>
+        <v>9.468</v>
       </c>
       <c r="F8" s="3">
         <v>7.2</v>
       </c>
       <c r="G8" s="3">
-        <v>7.848</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2630,21 +2756,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -2665,67 +2791,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -2734,89 +2883,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -2825,7 +3020,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -2999,13 +3194,13 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="3">
-        <v>3.924</v>
+        <v>9.468</v>
       </c>
       <c r="F8" s="3">
         <v>7.2</v>
       </c>
       <c r="G8" s="3">
-        <v>7.848</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3373,21 +3568,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -3408,67 +3603,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -3477,89 +3695,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -3568,7 +3832,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -3742,13 +4006,13 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="3">
-        <v>3.924</v>
+        <v>9.468</v>
       </c>
       <c r="F8" s="3">
         <v>7.2</v>
       </c>
       <c r="G8" s="3">
-        <v>7.848</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4116,21 +4380,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -4151,67 +4415,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -4220,89 +4507,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -4311,7 +4644,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -4485,13 +4818,13 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="3">
-        <v>3.924</v>
+        <v>9.468</v>
       </c>
       <c r="F8" s="3">
         <v>7.2</v>
       </c>
       <c r="G8" s="3">
-        <v>7.848</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4859,21 +5192,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -4894,67 +5227,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -4963,89 +5319,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -5054,7 +5456,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -5228,13 +5630,13 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="3">
-        <v>3.924</v>
+        <v>9.468</v>
       </c>
       <c r="F8" s="3">
         <v>7.2</v>
       </c>
       <c r="G8" s="3">
-        <v>7.848</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5602,21 +6004,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -5637,67 +6039,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -5706,89 +6131,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -5797,7 +6268,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -5971,13 +6442,13 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="3">
-        <v>3.924</v>
+        <v>9.468</v>
       </c>
       <c r="F8" s="3">
         <v>7.2</v>
       </c>
       <c r="G8" s="3">
-        <v>7.848</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6345,21 +6816,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -6380,67 +6851,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -6449,89 +6943,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -6540,7 +7080,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -6714,13 +7254,13 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="3">
-        <v>3.924</v>
+        <v>9.468</v>
       </c>
       <c r="F8" s="3">
         <v>7.2</v>
       </c>
       <c r="G8" s="3">
-        <v>7.848</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7088,21 +7628,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -7123,67 +7663,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -7192,89 +7755,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -7283,7 +7892,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -7457,13 +8066,13 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="3">
-        <v>3.924</v>
+        <v>9.468</v>
       </c>
       <c r="F8" s="3">
         <v>7.2</v>
       </c>
       <c r="G8" s="3">
-        <v>7.848</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7831,21 +8440,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -7866,67 +8475,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -7935,89 +8567,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -8026,7 +8704,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -8156,10 +8834,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>161.9</v>
+        <v>185.9</v>
       </c>
       <c r="E8" s="3">
-        <v>176.471</v>
+        <v>488.91700000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8232,52 +8910,35 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3">
-        <v>63.12</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>63</v>
+        <v>0.122</v>
       </c>
       <c r="E14" s="3">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.122</v>
-      </c>
-      <c r="E15" s="3">
         <v>2.4</v>
       </c>
     </row>
@@ -8488,15 +9149,15 @@
         <v>22</v>
       </c>
       <c r="D30" s="3">
-        <v>3824</v>
+        <v>2912</v>
       </c>
       <c r="E30" s="3">
-        <v>30.592</v>
+        <v>23.296</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>36</v>
@@ -8513,87 +9174,104 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="3">
-        <v>168</v>
+        <v>544</v>
       </c>
       <c r="E32" s="3">
-        <v>6.72</v>
+        <v>9.248</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
+        <v>15</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3">
+        <v>720</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>16</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="3">
+        <v>168</v>
+      </c>
+      <c r="E34" s="3">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>17</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="3">
         <v>96</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E35" s="3">
         <v>3.552</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>1</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3">
-        <v>200</v>
-      </c>
-      <c r="E42" s="3">
-        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>9</v>
@@ -8602,65 +9280,99 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>2.857</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>8.8</v>
+        <v>2.857</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>3</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>5</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="3">
-        <v>528</v>
-      </c>
-      <c r="E46" s="3">
-        <v>4.224</v>
+      <c r="C47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="3">
+        <v>352</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2.816</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="3">
+        <v>176</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2.992</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -8669,7 +9381,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -8843,13 +9555,13 @@
         <v>4.8</v>
       </c>
       <c r="E8" s="3">
-        <v>5.232</v>
+        <v>12.624</v>
       </c>
       <c r="F8" s="3">
         <v>9.6</v>
       </c>
       <c r="G8" s="3">
-        <v>10.464</v>
+        <v>25.248</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9231,7 +9943,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -9252,67 +9964,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.272</v>
+      </c>
+      <c r="F28" s="3">
+        <v>32</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>40</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -9321,89 +10056,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -9412,7 +10193,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -9586,13 +10367,13 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="3">
-        <v>3.924</v>
+        <v>9.468</v>
       </c>
       <c r="F8" s="3">
         <v>57.6</v>
       </c>
       <c r="G8" s="3">
-        <v>62.784</v>
+        <v>151.488</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9960,21 +10741,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -9995,67 +10776,90 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>192</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3.264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>256</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3.84</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>64</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2.88</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -10064,89 +10868,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>64</v>
       </c>
       <c r="G33" s="3">
-        <v>0.912</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="G34" s="3">
-        <v>2.816</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="G35" s="3">
-        <v>0.96</v>
+        <v>2.816</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>46</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>128</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.088</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -10155,7 +11005,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -10329,13 +11179,13 @@
         <v>2.95</v>
       </c>
       <c r="E8" s="3">
-        <v>3.216</v>
+        <v>7.758</v>
       </c>
       <c r="F8" s="3">
         <v>5.9</v>
       </c>
       <c r="G8" s="3">
-        <v>6.432</v>
+        <v>15.516</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -10703,21 +11553,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -10738,67 +11588,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -10807,89 +11680,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -10898,7 +11817,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -11072,13 +11991,13 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="3">
-        <v>3.924</v>
+        <v>9.468</v>
       </c>
       <c r="F8" s="3">
         <v>7.2</v>
       </c>
       <c r="G8" s="3">
-        <v>7.848</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11446,21 +12365,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -11481,67 +12400,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -11550,89 +12492,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -11673,10 +12661,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -11690,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -11713,7 +12701,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -11782,7 +12770,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -11820,10 +12808,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -11837,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
@@ -11860,7 +12848,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>22</v>
@@ -11972,7 +12960,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -11990,10 +12978,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -12007,7 +12995,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>9</v>
@@ -12139,10 +13127,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -12156,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -12179,7 +13167,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -12248,7 +13236,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -12286,10 +13274,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -12303,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
@@ -12326,7 +13314,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>22</v>
@@ -12438,7 +13426,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -12456,10 +13444,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -12473,7 +13461,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>9</v>
@@ -12605,10 +13593,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -12622,7 +13610,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -12645,7 +13633,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -12714,7 +13702,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -12752,10 +13740,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>6</v>
@@ -12769,7 +13757,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
@@ -12792,7 +13780,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>22</v>
@@ -12904,7 +13892,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -12922,10 +13910,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -12939,7 +13927,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>9</v>
@@ -13039,7 +14027,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -13213,13 +14201,13 @@
         <v>3.6</v>
       </c>
       <c r="E8" s="3">
-        <v>3.924</v>
+        <v>9.468</v>
       </c>
       <c r="F8" s="3">
         <v>7.2</v>
       </c>
       <c r="G8" s="3">
-        <v>7.848</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -13587,21 +14575,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="3">
         <v>0.416</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
@@ -13622,67 +14610,90 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="F28" s="3">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -13691,89 +14702,135 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0.057</v>
+        <v>0.18</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>0.114</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
-        <v>0.176</v>
+        <v>0.057</v>
       </c>
       <c r="F34" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
-        <v>0.352</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3">
-        <v>0.12</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.032</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>41</v>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.064</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.068</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
